--- a/15_myhome/계층게시판.xlsx
+++ b/15_myhome/계층게시판.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24045" windowHeight="9360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28425" windowHeight="11145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:H13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,11 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
-  <si>
-    <t>계층형 게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>원글</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +187,58 @@
     <t>원글과 같은 GROUP_NO를 가진 게시물 중에서
 원글의 GROUP_ORDER보다 큰 GROUP_ORDER값을 가진 게시물들의
 GROUP_ORDER값을 1씩 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계층형 게시판(N차)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계층형 게시판(1차)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반갑습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ㄴ넵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ㄴ넵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ㄴ넵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_NO DESC, DEPTH ASC, COMMENT_NO DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬 O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +259,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -236,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,7 +305,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -546,38 +610,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -585,15 +649,15 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -601,84 +665,84 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>33</v>
+      <c r="G21" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -686,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -697,14 +761,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -713,34 +777,34 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -751,14 +815,14 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -767,16 +831,16 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -787,47 +851,47 @@
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
         <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
         <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
         <v>19</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>20</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>21</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>22</v>
       </c>
-      <c r="E32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>39</v>
+      <c r="G32" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -835,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -846,14 +910,14 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -864,32 +928,32 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>26</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -898,16 +962,16 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -918,14 +982,14 @@
       <c r="E37">
         <v>4</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -934,9 +998,9 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="G38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -950,4 +1014,299 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:6" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F22:F27"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>